--- a/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 4,41</t>
+          <t>-18,27; 14,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 8,97</t>
+          <t>-8,79; 11,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 13,12</t>
+          <t>1,14; 15,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 20,71</t>
+          <t>-56,43; 106,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 11,5</t>
+          <t>-9,84; 14,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 16,42</t>
+          <t>1,31; 20,94</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,95</t>
+          <t>-4,39; 12,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 17,99</t>
+          <t>4,07; 16,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 11,36</t>
+          <t>4,41; 14,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 71,0</t>
+          <t>-19,72; 93,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 27,52</t>
+          <t>5,22; 23,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,62</t>
+          <t>5,39; 19,96</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>14,66%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 7,12</t>
+          <t>-1,42; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 11,38</t>
+          <t>-4,97; 12,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,82</t>
+          <t>2,58; 15,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 122,47</t>
+          <t>-23,97; 318,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 19,02</t>
+          <t>-7,26; 21,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 23,25</t>
+          <t>3,95; 25,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,57</t>
+          <t>-0,33; 7,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,27</t>
+          <t>5,24; 16,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,42</t>
+          <t>-0,91; 9,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 48,83</t>
+          <t>-1,69; 56,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 18,22</t>
+          <t>7,01; 24,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,87</t>
+          <t>-1,0; 11,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,14</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 6,76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 11,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 10,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 50,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 17,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 14,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.59323567685038</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.560183809002047</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.226710457198083</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.07283316091870327</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.01872450662454534</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1006931216191238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 14,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 11,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 15,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-56,43; 106,4</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 14,58</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 20,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.26943973978619</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.836494443678796</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.172915166175255</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5642716069526152</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.0910067325377642</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.01333809303762904</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.47096474277451</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.02695743592288</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.31492359486097</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.064027632553854</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.14233103569045</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2166147417034862</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,52</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,78%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,14%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 12,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 16,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 14,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,72; 93,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 23,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,39; 19,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.053690424801776</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.87969117485923</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.598673696773751</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2878175765945119</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.147837023912479</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1228344842995872</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>71,61%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.38650965153986</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.732806564698175</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.509189341023321</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1972355937878294</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.06118941910252081</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.05552341535259085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 8,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 12,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 15,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,97; 318,84</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 21,48</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 25,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.36743362016316</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.32014462096584</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.02175919441535</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9314024260319107</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2493300389453268</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2041684982385428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.610617452036693</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.423782528042819</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.717242220711153</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.7160664300693905</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.07201869725081832</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1491263410826026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 7,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 16,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 9,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 56,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 24,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 11,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.416804623450697</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.452660963369509</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.522720325515668</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2397039089858927</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.06671508696574178</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.03712838979733332</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.912984989829278</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.88308786937428</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.03514825514237</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.188401599235922</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2521090387435655</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2621626986902281</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,47%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 6,76</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 11,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 10,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 50,9</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 17,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 14,24</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.713172379860846</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.200194060091691</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.349161798215233</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2666089472765011</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1018050548881422</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.125315932580242</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.218161893114236</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.567268145152898</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.870129105677015</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1362860030471164</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03507055387719121</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.07603536112051262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.411967392702966</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.18244012418271</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.96056751120227</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7320247046256089</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1810086064044802</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1798655449407713</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
